--- a/grupos/4ASV - Estadisticos 20202.xlsx
+++ b/grupos/4ASV - Estadisticos 20202.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="156">
   <si>
     <t>Materia</t>
   </si>
@@ -197,16 +197,16 @@
     <t>Vargas Olvera Francisco Eduardo</t>
   </si>
   <si>
+    <t>González Nuñez Veronica</t>
+  </si>
+  <si>
+    <t>Pesce Bautista Victor Manuel</t>
+  </si>
+  <si>
+    <t>Sánchez Sánchez Miguel</t>
+  </si>
+  <si>
     <t>Muñoz Rivadeneyra Salvador</t>
-  </si>
-  <si>
-    <t>González Nuñez Veronica</t>
-  </si>
-  <si>
-    <t>Pesce Bautista Victor Manuel</t>
-  </si>
-  <si>
-    <t>Sánchez Sánchez Miguel</t>
   </si>
   <si>
     <t>NC</t>
@@ -1057,7 +1057,7 @@
         <v>6</v>
       </c>
       <c r="D5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E5">
         <v>-1</v>
@@ -1075,7 +1075,7 @@
         <v>6</v>
       </c>
       <c r="J5">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K5">
         <v>-1</v>
@@ -1093,7 +1093,7 @@
         <v>8</v>
       </c>
       <c r="P5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Q5">
         <v>-1</v>
@@ -1111,7 +1111,7 @@
         <v>7</v>
       </c>
       <c r="V5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="W5">
         <v>-1</v>
@@ -1394,7 +1394,7 @@
         <v>9</v>
       </c>
       <c r="D10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E10">
         <v>9</v>
@@ -1412,7 +1412,7 @@
         <v>8</v>
       </c>
       <c r="J10">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K10">
         <v>-1</v>
@@ -1430,7 +1430,7 @@
         <v>8</v>
       </c>
       <c r="P10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Q10">
         <v>-1</v>
@@ -1448,7 +1448,7 @@
         <v>8</v>
       </c>
       <c r="V10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="W10">
         <v>9</v>
@@ -1471,7 +1471,7 @@
         <v>5</v>
       </c>
       <c r="D11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E11">
         <v>-1</v>
@@ -1489,7 +1489,7 @@
         <v>5</v>
       </c>
       <c r="J11">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K11">
         <v>-1</v>
@@ -1507,7 +1507,7 @@
         <v>8</v>
       </c>
       <c r="P11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Q11">
         <v>-1</v>
@@ -1525,7 +1525,7 @@
         <v>6</v>
       </c>
       <c r="V11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="W11">
         <v>-1</v>
@@ -2241,7 +2241,7 @@
         <v>5</v>
       </c>
       <c r="D21">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E21">
         <v>-1</v>
@@ -2259,7 +2259,7 @@
         <v>5</v>
       </c>
       <c r="J21">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K21">
         <v>-1</v>
@@ -2277,7 +2277,7 @@
         <v>8</v>
       </c>
       <c r="P21">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Q21">
         <v>-1</v>
@@ -2295,7 +2295,7 @@
         <v>6</v>
       </c>
       <c r="V21">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="W21">
         <v>-1</v>
@@ -2472,7 +2472,7 @@
         <v>5</v>
       </c>
       <c r="D24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E24">
         <v>-1</v>
@@ -2490,7 +2490,7 @@
         <v>5</v>
       </c>
       <c r="J24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K24">
         <v>-1</v>
@@ -2508,7 +2508,7 @@
         <v>8</v>
       </c>
       <c r="P24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Q24">
         <v>-1</v>
@@ -2526,7 +2526,7 @@
         <v>6</v>
       </c>
       <c r="V24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="W24">
         <v>-1</v>
@@ -3271,7 +3271,7 @@
         <v>5</v>
       </c>
       <c r="D35">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E35">
         <v>-1</v>
@@ -3289,7 +3289,7 @@
         <v>5</v>
       </c>
       <c r="J35">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K35">
         <v>-1</v>
@@ -3307,7 +3307,7 @@
         <v>8</v>
       </c>
       <c r="P35">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Q35">
         <v>-1</v>
@@ -3325,7 +3325,7 @@
         <v>6</v>
       </c>
       <c r="V35">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="W35">
         <v>-1</v>
@@ -3348,7 +3348,7 @@
         <v>8</v>
       </c>
       <c r="D36">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E36">
         <v>-1</v>
@@ -3366,7 +3366,7 @@
         <v>5</v>
       </c>
       <c r="J36">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K36">
         <v>-1</v>
@@ -3384,7 +3384,7 @@
         <v>8</v>
       </c>
       <c r="P36">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Q36">
         <v>-1</v>
@@ -3402,7 +3402,7 @@
         <v>7</v>
       </c>
       <c r="V36">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="W36">
         <v>-1</v>
@@ -3425,7 +3425,7 @@
         <v>6</v>
       </c>
       <c r="D37">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E37">
         <v>-1</v>
@@ -3443,7 +3443,7 @@
         <v>7</v>
       </c>
       <c r="J37">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K37">
         <v>-1</v>
@@ -3461,7 +3461,7 @@
         <v>8</v>
       </c>
       <c r="P37">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Q37">
         <v>-1</v>
@@ -3479,7 +3479,7 @@
         <v>7</v>
       </c>
       <c r="V37">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="W37">
         <v>-1</v>
@@ -3502,7 +3502,7 @@
         <v>6</v>
       </c>
       <c r="D38">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E38">
         <v>-1</v>
@@ -3520,7 +3520,7 @@
         <v>6</v>
       </c>
       <c r="J38">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K38">
         <v>-1</v>
@@ -3538,7 +3538,7 @@
         <v>8</v>
       </c>
       <c r="P38">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Q38">
         <v>-1</v>
@@ -3556,7 +3556,7 @@
         <v>7</v>
       </c>
       <c r="V38">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="W38">
         <v>-1</v>
@@ -3765,7 +3765,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
         <v>59</v>
@@ -3774,62 +3774,62 @@
         <v>34</v>
       </c>
       <c r="D4">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>73.53</v>
+        <v>76.47</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>8.82</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="I4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J4">
-        <v>26.47</v>
+        <v>23.53</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>60</v>
       </c>
       <c r="C5">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D5">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F5">
-        <v>76.47</v>
+        <v>77.78</v>
       </c>
       <c r="G5">
-        <v>8.82</v>
+        <v>22.22</v>
       </c>
       <c r="H5">
-        <v>7.5</v>
+        <v>8.1</v>
       </c>
       <c r="I5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>23.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>61</v>
@@ -3838,19 +3838,19 @@
         <v>36</v>
       </c>
       <c r="D6">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E6">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F6">
-        <v>77.78</v>
+        <v>86.11</v>
       </c>
       <c r="G6">
-        <v>22.22</v>
+        <v>13.89</v>
       </c>
       <c r="H6">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -3861,28 +3861,28 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>62</v>
       </c>
       <c r="C7">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D7">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>86.11</v>
+        <v>100</v>
       </c>
       <c r="G7">
-        <v>13.89</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -3898,7 +3898,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4002,7 +4002,7 @@
         <v>93</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
         <v>59</v>
@@ -4010,22 +4010,22 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>19330051920247</v>
+        <v>19330051920251</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C6" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="D6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4042,50 +4042,50 @@
         <v>94</v>
       </c>
       <c r="E7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>19330051920251</v>
+        <v>19330051920252</v>
       </c>
       <c r="B8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>19330051920251</v>
+        <v>19330051920252</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4102,44 +4102,44 @@
         <v>95</v>
       </c>
       <c r="E10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>19330051920252</v>
+        <v>19330051920433</v>
       </c>
       <c r="B11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>19330051920252</v>
+        <v>19330051920257</v>
       </c>
       <c r="B12" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C12" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D12" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E12" t="s">
         <v>9</v>
@@ -4150,16 +4150,16 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>19330051920252</v>
+        <v>19330051920259</v>
       </c>
       <c r="B13" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C13" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D13" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E13" t="s">
         <v>8</v>
@@ -4170,36 +4170,36 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>19330051920433</v>
+        <v>19330051920259</v>
       </c>
       <c r="B14" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C14" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D14" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>19330051920257</v>
+        <v>19330051920261</v>
       </c>
       <c r="B15" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C15" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D15" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E15" t="s">
         <v>9</v>
@@ -4210,136 +4210,136 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>19330051920259</v>
+        <v>19330051920261</v>
       </c>
       <c r="B16" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D16" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E16" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>19330051920259</v>
+        <v>19330051920261</v>
       </c>
       <c r="B17" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D17" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>19330051920261</v>
+        <v>19330051920265</v>
       </c>
       <c r="B18" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C18" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="D18" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E18" t="s">
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>19330051920261</v>
+        <v>19330051920265</v>
       </c>
       <c r="B19" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C19" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="D19" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>19330051920261</v>
+        <v>19330051920265</v>
       </c>
       <c r="B20" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C20" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="D20" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>19330051920261</v>
+        <v>19330051920264</v>
       </c>
       <c r="B21" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C21" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="D21" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E21" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>19330051920265</v>
+        <v>19330051920264</v>
       </c>
       <c r="B22" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C22" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D22" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E22" t="s">
         <v>8</v>
@@ -4350,56 +4350,56 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>19330051920265</v>
+        <v>19330051920266</v>
       </c>
       <c r="B23" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C23" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="D23" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E23" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>19330051920265</v>
+        <v>19330051920407</v>
       </c>
       <c r="B24" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C24" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="D24" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>19330051920265</v>
+        <v>19330051920407</v>
       </c>
       <c r="B25" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C25" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="D25" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E25" t="s">
         <v>9</v>
@@ -4410,96 +4410,96 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>19330051920264</v>
+        <v>19330051920407</v>
       </c>
       <c r="B26" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C26" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D26" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E26" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>19330051920264</v>
+        <v>19330051920408</v>
       </c>
       <c r="B27" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C27" t="s">
         <v>72</v>
       </c>
       <c r="D27" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>19330051920266</v>
+        <v>19330051920408</v>
       </c>
       <c r="B28" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C28" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="D28" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F28" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>19330051920407</v>
+        <v>19330051920408</v>
       </c>
       <c r="B29" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C29" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D29" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>19330051920407</v>
+        <v>19330051920409</v>
       </c>
       <c r="B30" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C30" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D30" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E30" t="s">
         <v>9</v>
@@ -4510,59 +4510,59 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>19330051920407</v>
+        <v>19330051920409</v>
       </c>
       <c r="B31" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C31" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F31" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>19330051920408</v>
+        <v>19330051920411</v>
       </c>
       <c r="B32" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C32" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="D32" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F32" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>19330051920408</v>
+        <v>19330051920411</v>
       </c>
       <c r="B33" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C33" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="D33" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E33" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F33" t="s">
         <v>59</v>
@@ -4570,59 +4570,59 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>19330051920408</v>
+        <v>19330051920411</v>
       </c>
       <c r="B34" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C34" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="D34" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>19330051920408</v>
+        <v>19330051920412</v>
       </c>
       <c r="B35" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C35" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D35" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F35" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>19330051920409</v>
+        <v>19330051920412</v>
       </c>
       <c r="B36" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36" t="s">
         <v>80</v>
       </c>
-      <c r="C36" t="s">
-        <v>90</v>
-      </c>
       <c r="D36" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E36" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F36" t="s">
         <v>59</v>
@@ -4630,201 +4630,21 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>19330051920409</v>
+        <v>19330051920412</v>
       </c>
       <c r="B37" t="s">
+        <v>81</v>
+      </c>
+      <c r="C37" t="s">
         <v>80</v>
       </c>
-      <c r="C37" t="s">
-        <v>90</v>
-      </c>
       <c r="D37" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E37" t="s">
         <v>9</v>
       </c>
       <c r="F37" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38">
-        <v>19330051920409</v>
-      </c>
-      <c r="B38" t="s">
-        <v>80</v>
-      </c>
-      <c r="C38" t="s">
-        <v>90</v>
-      </c>
-      <c r="D38" t="s">
-        <v>105</v>
-      </c>
-      <c r="E38" t="s">
-        <v>8</v>
-      </c>
-      <c r="F38" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39">
-        <v>19330051920411</v>
-      </c>
-      <c r="B39" t="s">
-        <v>80</v>
-      </c>
-      <c r="C39" t="s">
-        <v>91</v>
-      </c>
-      <c r="D39" t="s">
-        <v>106</v>
-      </c>
-      <c r="E39" t="s">
-        <v>7</v>
-      </c>
-      <c r="F39" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40">
-        <v>19330051920411</v>
-      </c>
-      <c r="B40" t="s">
-        <v>80</v>
-      </c>
-      <c r="C40" t="s">
-        <v>91</v>
-      </c>
-      <c r="D40" t="s">
-        <v>106</v>
-      </c>
-      <c r="E40" t="s">
-        <v>8</v>
-      </c>
-      <c r="F40" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41">
-        <v>19330051920411</v>
-      </c>
-      <c r="B41" t="s">
-        <v>80</v>
-      </c>
-      <c r="C41" t="s">
-        <v>91</v>
-      </c>
-      <c r="D41" t="s">
-        <v>106</v>
-      </c>
-      <c r="E41" t="s">
-        <v>10</v>
-      </c>
-      <c r="F41" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42">
-        <v>19330051920411</v>
-      </c>
-      <c r="B42" t="s">
-        <v>80</v>
-      </c>
-      <c r="C42" t="s">
-        <v>91</v>
-      </c>
-      <c r="D42" t="s">
-        <v>106</v>
-      </c>
-      <c r="E42" t="s">
-        <v>9</v>
-      </c>
-      <c r="F42" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43">
-        <v>19330051920412</v>
-      </c>
-      <c r="B43" t="s">
-        <v>81</v>
-      </c>
-      <c r="C43" t="s">
-        <v>80</v>
-      </c>
-      <c r="D43" t="s">
-        <v>107</v>
-      </c>
-      <c r="E43" t="s">
-        <v>8</v>
-      </c>
-      <c r="F43" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44">
-        <v>19330051920412</v>
-      </c>
-      <c r="B44" t="s">
-        <v>81</v>
-      </c>
-      <c r="C44" t="s">
-        <v>80</v>
-      </c>
-      <c r="D44" t="s">
-        <v>107</v>
-      </c>
-      <c r="E44" t="s">
-        <v>7</v>
-      </c>
-      <c r="F44" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45">
-        <v>19330051920412</v>
-      </c>
-      <c r="B45" t="s">
-        <v>81</v>
-      </c>
-      <c r="C45" t="s">
-        <v>80</v>
-      </c>
-      <c r="D45" t="s">
-        <v>107</v>
-      </c>
-      <c r="E45" t="s">
-        <v>10</v>
-      </c>
-      <c r="F45" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46">
-        <v>19330051920412</v>
-      </c>
-      <c r="B46" t="s">
-        <v>81</v>
-      </c>
-      <c r="C46" t="s">
-        <v>80</v>
-      </c>
-      <c r="D46" t="s">
-        <v>107</v>
-      </c>
-      <c r="E46" t="s">
-        <v>9</v>
-      </c>
-      <c r="F46" t="s">
         <v>57</v>
       </c>
     </row>
@@ -4876,7 +4696,7 @@
         <v>93</v>
       </c>
       <c r="E2">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4893,7 +4713,7 @@
         <v>95</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4910,7 +4730,7 @@
         <v>99</v>
       </c>
       <c r="E4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4927,72 +4747,72 @@
         <v>100</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>19330051920408</v>
+        <v>19330051920407</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C6" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>19330051920411</v>
+        <v>19330051920408</v>
       </c>
       <c r="B7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C7" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="D7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>19330051920412</v>
+        <v>19330051920411</v>
       </c>
       <c r="B8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C8" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="D8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E8">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>19330051920251</v>
+        <v>19330051920412</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="C9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D9" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -5000,50 +4820,50 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>19330051920407</v>
+        <v>19330051920251</v>
       </c>
       <c r="B10" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C10" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D10" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>19330051920409</v>
+        <v>19330051920259</v>
       </c>
       <c r="B11" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C11" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D11" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>19330051920259</v>
+        <v>19330051920264</v>
       </c>
       <c r="B12" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C12" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="D12" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -5051,16 +4871,16 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>19330051920264</v>
+        <v>19330051920409</v>
       </c>
       <c r="B13" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C13" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="D13" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -5481,7 +5301,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5516,16 +5336,16 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>19330051920433</v>
+        <v>19330051920251</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -5539,16 +5359,16 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>19330051920433</v>
+        <v>19330051920251</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -5557,21 +5377,21 @@
         <v>57</v>
       </c>
       <c r="G3">
-        <v>6</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>19330051920264</v>
+        <v>19330051920433</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C4" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="D4" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
@@ -5585,16 +5405,16 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>19330051920264</v>
+        <v>19330051920433</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C5" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="D5" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
@@ -5603,27 +5423,27 @@
         <v>57</v>
       </c>
       <c r="G5">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>19330051920246</v>
+        <v>19330051920264</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="C6" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="D6" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G6">
         <v>-1</v>
@@ -5631,16 +5451,16 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>19330051920257</v>
+        <v>19330051920264</v>
       </c>
       <c r="B7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" t="s">
         <v>72</v>
       </c>
-      <c r="C7" t="s">
-        <v>86</v>
-      </c>
       <c r="D7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
@@ -5654,16 +5474,16 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>19330051920266</v>
+        <v>19330051920246</v>
       </c>
       <c r="B8" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C8" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D8" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
@@ -5672,6 +5492,52 @@
         <v>57</v>
       </c>
       <c r="G8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>19330051920257</v>
+      </c>
+      <c r="B9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>19330051920266</v>
+      </c>
+      <c r="B10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10">
         <v>-1</v>
       </c>
     </row>

--- a/grupos/4ASV - Estadisticos 20202.xlsx
+++ b/grupos/4ASV - Estadisticos 20202.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="156">
   <si>
     <t>Materia</t>
   </si>
@@ -191,21 +191,21 @@
     <t>Por_Blancos</t>
   </si>
   <si>
+    <t>Pesce Bautista Victor Manuel</t>
+  </si>
+  <si>
+    <t>González Nuñez Veronica</t>
+  </si>
+  <si>
+    <t>Sánchez Sánchez Miguel</t>
+  </si>
+  <si>
     <t>González Sánchez Rene Aurelio</t>
   </si>
   <si>
     <t>Vargas Olvera Francisco Eduardo</t>
   </si>
   <si>
-    <t>González Nuñez Veronica</t>
-  </si>
-  <si>
-    <t>Pesce Bautista Victor Manuel</t>
-  </si>
-  <si>
-    <t>Sánchez Sánchez Miguel</t>
-  </si>
-  <si>
     <t>Muñoz Rivadeneyra Salvador</t>
   </si>
   <si>
@@ -221,31 +221,91 @@
     <t>Nombres</t>
   </si>
   <si>
+    <t>BONILLA</t>
+  </si>
+  <si>
+    <t>FLORES</t>
+  </si>
+  <si>
+    <t>MANI</t>
+  </si>
+  <si>
+    <t>MENDOZA</t>
+  </si>
+  <si>
+    <t>ROSAS</t>
+  </si>
+  <si>
+    <t>RUIZ</t>
+  </si>
+  <si>
+    <t>SANTILLANA</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
+    <t>GERARDO</t>
+  </si>
+  <si>
+    <t>ZAPATA</t>
+  </si>
+  <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>JOSE EMMANUEL</t>
+  </si>
+  <si>
+    <t>JULIO GABRIEL</t>
+  </si>
+  <si>
+    <t>JUAN CARLOS</t>
+  </si>
+  <si>
+    <t>KARLA</t>
+  </si>
+  <si>
+    <t>MONSERRAT</t>
+  </si>
+  <si>
+    <t>JESUS JOAN</t>
+  </si>
+  <si>
+    <t>CESAR GAEL</t>
+  </si>
+  <si>
     <t>ALCANTARA</t>
   </si>
   <si>
-    <t>BONILLA</t>
+    <t>CASTILLO</t>
+  </si>
+  <si>
+    <t>CANO</t>
+  </si>
+  <si>
+    <t>CISNEROS</t>
+  </si>
+  <si>
+    <t>CORDOVA</t>
   </si>
   <si>
     <t>CRUZ</t>
   </si>
   <si>
-    <t>FLORES</t>
-  </si>
-  <si>
-    <t>GONZALEZ</t>
-  </si>
-  <si>
-    <t>HERNANDEZ</t>
+    <t>GOMEZ</t>
   </si>
   <si>
     <t>HERRERA</t>
   </si>
   <si>
-    <t>MANI</t>
-  </si>
-  <si>
-    <t>MENDOZA</t>
+    <t>LLAME</t>
+  </si>
+  <si>
+    <t>MARTINEZ</t>
   </si>
   <si>
     <t>MEJIA</t>
@@ -254,235 +314,175 @@
     <t>MIXCOHUA</t>
   </si>
   <si>
-    <t>ROSAS</t>
-  </si>
-  <si>
-    <t>RUIZ</t>
-  </si>
-  <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
-    <t>SANTILLANA</t>
+    <t>MORALES</t>
+  </si>
+  <si>
+    <t>MONSALVO</t>
+  </si>
+  <si>
+    <t>OCHOA</t>
+  </si>
+  <si>
+    <t>PEREZ</t>
+  </si>
+  <si>
+    <t>RIVERA</t>
+  </si>
+  <si>
+    <t>ROJAS</t>
+  </si>
+  <si>
+    <t>ROMAN</t>
+  </si>
+  <si>
+    <t>TREJO</t>
   </si>
   <si>
     <t>LEYVA</t>
   </si>
   <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>ORTEGA</t>
+  </si>
+  <si>
     <t>PALMA</t>
   </si>
   <si>
-    <t>GERARDO</t>
+    <t>GUIZA</t>
   </si>
   <si>
     <t>SERRANO</t>
   </si>
   <si>
+    <t>CUAHUA</t>
+  </si>
+  <si>
+    <t>DOMINGUEZ</t>
+  </si>
+  <si>
     <t>GALEOTE</t>
   </si>
   <si>
     <t>SIERRA</t>
   </si>
   <si>
-    <t>ZAPATA</t>
+    <t>TZOMPAXTLE</t>
+  </si>
+  <si>
+    <t>VERA</t>
   </si>
   <si>
     <t>IXMATLAHUA</t>
   </si>
   <si>
-    <t>GARCIA</t>
+    <t>CASTELLANOS</t>
+  </si>
+  <si>
+    <t>QUINTERO</t>
+  </si>
+  <si>
+    <t>REYES</t>
+  </si>
+  <si>
+    <t>AGUILAR</t>
+  </si>
+  <si>
+    <t>DIAZ</t>
+  </si>
+  <si>
+    <t>JUAREZ</t>
   </si>
   <si>
     <t>PINO</t>
   </si>
   <si>
+    <t>LUENGAS</t>
+  </si>
+  <si>
     <t>MOISES EFRAIN</t>
   </si>
   <si>
-    <t>JOSE EMMANUEL</t>
+    <t>BRANDON AXEL</t>
+  </si>
+  <si>
+    <t>OMAR</t>
+  </si>
+  <si>
+    <t>GABRIEL MARTIN</t>
+  </si>
+  <si>
+    <t>ANGELA ALESSANDRA</t>
   </si>
   <si>
     <t>VALERIA</t>
   </si>
   <si>
-    <t>JULIO GABRIEL</t>
+    <t>LUIS ANGEL</t>
   </si>
   <si>
     <t>CRISTIAN</t>
   </si>
   <si>
+    <t>ERICA</t>
+  </si>
+  <si>
+    <t>ZAYRA JOSELIN</t>
+  </si>
+  <si>
+    <t>JAVIER FERNANDO</t>
+  </si>
+  <si>
     <t>ALEXIS</t>
   </si>
   <si>
     <t>DIEGO ABDEL JARIN</t>
   </si>
   <si>
-    <t>JUAN CARLOS</t>
-  </si>
-  <si>
-    <t>KARLA</t>
+    <t>WENDY</t>
+  </si>
+  <si>
+    <t>AIDA</t>
+  </si>
+  <si>
+    <t>CESAR</t>
   </si>
   <si>
     <t>JESUS ALEXIS</t>
   </si>
   <si>
+    <t>LETICIA</t>
+  </si>
+  <si>
     <t>VALENTIN</t>
   </si>
   <si>
-    <t>MONSERRAT</t>
-  </si>
-  <si>
-    <t>JESUS JOAN</t>
+    <t>ALFREDO</t>
+  </si>
+  <si>
+    <t>ANGEL GERARDO</t>
+  </si>
+  <si>
+    <t>OSCAR URIEL</t>
+  </si>
+  <si>
+    <t>EDUARDO ULISES</t>
+  </si>
+  <si>
+    <t>JELIN JANET</t>
+  </si>
+  <si>
+    <t>CESAR JOVANI</t>
+  </si>
+  <si>
+    <t>KARLA DENISSE</t>
   </si>
   <si>
     <t>RICARDO ISIDRO</t>
   </si>
   <si>
     <t>CESAR JAHIR</t>
-  </si>
-  <si>
-    <t>CESAR GAEL</t>
-  </si>
-  <si>
-    <t>CASTILLO</t>
-  </si>
-  <si>
-    <t>CANO</t>
-  </si>
-  <si>
-    <t>CISNEROS</t>
-  </si>
-  <si>
-    <t>CORDOVA</t>
-  </si>
-  <si>
-    <t>GOMEZ</t>
-  </si>
-  <si>
-    <t>LLAME</t>
-  </si>
-  <si>
-    <t>MARTINEZ</t>
-  </si>
-  <si>
-    <t>MORALES</t>
-  </si>
-  <si>
-    <t>MONSALVO</t>
-  </si>
-  <si>
-    <t>OCHOA</t>
-  </si>
-  <si>
-    <t>PEREZ</t>
-  </si>
-  <si>
-    <t>RIVERA</t>
-  </si>
-  <si>
-    <t>ROJAS</t>
-  </si>
-  <si>
-    <t>ROMAN</t>
-  </si>
-  <si>
-    <t>TREJO</t>
-  </si>
-  <si>
-    <t>ORTEGA</t>
-  </si>
-  <si>
-    <t>GUIZA</t>
-  </si>
-  <si>
-    <t>CUAHUA</t>
-  </si>
-  <si>
-    <t>DOMINGUEZ</t>
-  </si>
-  <si>
-    <t>TZOMPAXTLE</t>
-  </si>
-  <si>
-    <t>VERA</t>
-  </si>
-  <si>
-    <t>CASTELLANOS</t>
-  </si>
-  <si>
-    <t>QUINTERO</t>
-  </si>
-  <si>
-    <t>REYES</t>
-  </si>
-  <si>
-    <t>AGUILAR</t>
-  </si>
-  <si>
-    <t>DIAZ</t>
-  </si>
-  <si>
-    <t>JUAREZ</t>
-  </si>
-  <si>
-    <t>LUENGAS</t>
-  </si>
-  <si>
-    <t>BRANDON AXEL</t>
-  </si>
-  <si>
-    <t>OMAR</t>
-  </si>
-  <si>
-    <t>GABRIEL MARTIN</t>
-  </si>
-  <si>
-    <t>ANGELA ALESSANDRA</t>
-  </si>
-  <si>
-    <t>LUIS ANGEL</t>
-  </si>
-  <si>
-    <t>ERICA</t>
-  </si>
-  <si>
-    <t>ZAYRA JOSELIN</t>
-  </si>
-  <si>
-    <t>JAVIER FERNANDO</t>
-  </si>
-  <si>
-    <t>WENDY</t>
-  </si>
-  <si>
-    <t>AIDA</t>
-  </si>
-  <si>
-    <t>CESAR</t>
-  </si>
-  <si>
-    <t>LETICIA</t>
-  </si>
-  <si>
-    <t>ALFREDO</t>
-  </si>
-  <si>
-    <t>ANGEL GERARDO</t>
-  </si>
-  <si>
-    <t>OSCAR URIEL</t>
-  </si>
-  <si>
-    <t>EDUARDO ULISES</t>
-  </si>
-  <si>
-    <t>JELIN JANET</t>
-  </si>
-  <si>
-    <t>CESAR JOVANI</t>
-  </si>
-  <si>
-    <t>KARLA DENISSE</t>
   </si>
   <si>
     <t>ELIZABETH</t>
@@ -986,7 +986,7 @@
         <v>7</v>
       </c>
       <c r="F4">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="G4">
         <v>6</v>
@@ -1004,7 +1004,7 @@
         <v>8</v>
       </c>
       <c r="L4">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M4">
         <v>7</v>
@@ -1019,10 +1019,10 @@
         <v>6</v>
       </c>
       <c r="Q4">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="R4">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="S4">
         <v>-1</v>
@@ -1037,10 +1037,10 @@
         <v>7</v>
       </c>
       <c r="W4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X4">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Y4">
         <v>7</v>
@@ -1060,10 +1060,10 @@
         <v>6</v>
       </c>
       <c r="E5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G5">
         <v>-1</v>
@@ -1078,10 +1078,10 @@
         <v>7</v>
       </c>
       <c r="K5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M5">
         <v>-1</v>
@@ -1096,10 +1096,10 @@
         <v>6</v>
       </c>
       <c r="Q5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="R5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="S5">
         <v>-1</v>
@@ -1114,10 +1114,10 @@
         <v>6</v>
       </c>
       <c r="W5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="X5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y5">
         <v>-1</v>
@@ -1202,10 +1202,10 @@
         <v>8</v>
       </c>
       <c r="Q7">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="R7">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="S7">
         <v>-1</v>
@@ -1223,7 +1223,7 @@
         <v>9</v>
       </c>
       <c r="X7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y7">
         <v>8</v>
@@ -1279,10 +1279,10 @@
         <v>10</v>
       </c>
       <c r="Q8">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="R8">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="S8">
         <v>10</v>
@@ -1356,10 +1356,10 @@
         <v>10</v>
       </c>
       <c r="Q9">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="R9">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="S9">
         <v>10</v>
@@ -1415,10 +1415,10 @@
         <v>7</v>
       </c>
       <c r="K10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L10">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M10">
         <v>7</v>
@@ -1433,10 +1433,10 @@
         <v>6</v>
       </c>
       <c r="Q10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="R10">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S10">
         <v>-1</v>
@@ -1451,10 +1451,10 @@
         <v>6</v>
       </c>
       <c r="W10">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="X10">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Y10">
         <v>7</v>
@@ -1474,10 +1474,10 @@
         <v>6</v>
       </c>
       <c r="E11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G11">
         <v>6</v>
@@ -1492,10 +1492,10 @@
         <v>7</v>
       </c>
       <c r="K11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M11">
         <v>-1</v>
@@ -1510,10 +1510,10 @@
         <v>6</v>
       </c>
       <c r="Q11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="R11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="S11">
         <v>-1</v>
@@ -1528,10 +1528,10 @@
         <v>6</v>
       </c>
       <c r="W11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="X11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y11">
         <v>6</v>
@@ -1587,10 +1587,10 @@
         <v>8</v>
       </c>
       <c r="Q12">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="R12">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="S12">
         <v>-1</v>
@@ -1608,7 +1608,7 @@
         <v>8</v>
       </c>
       <c r="X12">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Y12">
         <v>8</v>
@@ -1628,7 +1628,7 @@
         <v>8</v>
       </c>
       <c r="E13">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F13">
         <v>4</v>
@@ -1646,7 +1646,7 @@
         <v>7</v>
       </c>
       <c r="K13">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L13">
         <v>6</v>
@@ -1664,10 +1664,10 @@
         <v>6</v>
       </c>
       <c r="Q13">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="R13">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="S13">
         <v>10</v>
@@ -1682,10 +1682,10 @@
         <v>7</v>
       </c>
       <c r="W13">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="X13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y13">
         <v>8</v>
@@ -1741,10 +1741,10 @@
         <v>8</v>
       </c>
       <c r="Q14">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="R14">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="S14">
         <v>-1</v>
@@ -1759,7 +1759,7 @@
         <v>8</v>
       </c>
       <c r="W14">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="X14">
         <v>9</v>
@@ -1818,10 +1818,10 @@
         <v>9</v>
       </c>
       <c r="Q15">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="R15">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="S15">
         <v>-1</v>
@@ -1836,7 +1836,7 @@
         <v>8</v>
       </c>
       <c r="W15">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="X15">
         <v>8</v>
@@ -1895,10 +1895,10 @@
         <v>9</v>
       </c>
       <c r="Q16">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="R16">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="S16">
         <v>-1</v>
@@ -1913,7 +1913,7 @@
         <v>9</v>
       </c>
       <c r="W16">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="X16">
         <v>6</v>
@@ -1957,7 +1957,7 @@
         <v>6</v>
       </c>
       <c r="L17">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M17">
         <v>6</v>
@@ -1972,10 +1972,10 @@
         <v>8</v>
       </c>
       <c r="Q17">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="R17">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="S17">
         <v>-1</v>
@@ -1990,10 +1990,10 @@
         <v>8</v>
       </c>
       <c r="W17">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X17">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Y17">
         <v>6</v>
@@ -2049,10 +2049,10 @@
         <v>9</v>
       </c>
       <c r="Q18">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="R18">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="S18">
         <v>-1</v>
@@ -2070,7 +2070,7 @@
         <v>10</v>
       </c>
       <c r="X18">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y18">
         <v>8</v>
@@ -2093,7 +2093,7 @@
         <v>6</v>
       </c>
       <c r="F19">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G19">
         <v>8</v>
@@ -2108,10 +2108,10 @@
         <v>7</v>
       </c>
       <c r="K19">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L19">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M19">
         <v>6</v>
@@ -2126,10 +2126,10 @@
         <v>8</v>
       </c>
       <c r="Q19">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="R19">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="S19">
         <v>-1</v>
@@ -2147,7 +2147,7 @@
         <v>6</v>
       </c>
       <c r="X19">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y19">
         <v>7</v>
@@ -2203,10 +2203,10 @@
         <v>8</v>
       </c>
       <c r="Q20">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="R20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="S20">
         <v>-1</v>
@@ -2224,7 +2224,7 @@
         <v>8</v>
       </c>
       <c r="X20">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Y20">
         <v>7</v>
@@ -2244,10 +2244,10 @@
         <v>6</v>
       </c>
       <c r="E21">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F21">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G21">
         <v>-1</v>
@@ -2262,10 +2262,10 @@
         <v>6</v>
       </c>
       <c r="K21">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L21">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M21">
         <v>-1</v>
@@ -2280,10 +2280,10 @@
         <v>6</v>
       </c>
       <c r="Q21">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="R21">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="S21">
         <v>-1</v>
@@ -2298,10 +2298,10 @@
         <v>6</v>
       </c>
       <c r="W21">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="X21">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y21">
         <v>-1</v>
@@ -2357,10 +2357,10 @@
         <v>10</v>
       </c>
       <c r="Q22">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="R22">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="S22">
         <v>-1</v>
@@ -2378,7 +2378,7 @@
         <v>7</v>
       </c>
       <c r="X22">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Y22">
         <v>7</v>
@@ -2398,10 +2398,10 @@
         <v>8</v>
       </c>
       <c r="E23">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F23">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G23">
         <v>6</v>
@@ -2416,10 +2416,10 @@
         <v>7</v>
       </c>
       <c r="K23">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L23">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M23">
         <v>7</v>
@@ -2434,10 +2434,10 @@
         <v>6</v>
       </c>
       <c r="Q23">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="R23">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="S23">
         <v>-1</v>
@@ -2452,10 +2452,10 @@
         <v>7</v>
       </c>
       <c r="W23">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="X23">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y23">
         <v>7</v>
@@ -2475,10 +2475,10 @@
         <v>6</v>
       </c>
       <c r="E24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G24">
         <v>-1</v>
@@ -2493,10 +2493,10 @@
         <v>6</v>
       </c>
       <c r="K24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M24">
         <v>-1</v>
@@ -2511,10 +2511,10 @@
         <v>6</v>
       </c>
       <c r="Q24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="R24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="S24">
         <v>-1</v>
@@ -2529,10 +2529,10 @@
         <v>6</v>
       </c>
       <c r="W24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="X24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y24">
         <v>-1</v>
@@ -2588,10 +2588,10 @@
         <v>9</v>
       </c>
       <c r="Q25">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="R25">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="S25">
         <v>-1</v>
@@ -2650,7 +2650,7 @@
         <v>10</v>
       </c>
       <c r="L26">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M26">
         <v>7</v>
@@ -2665,10 +2665,10 @@
         <v>6</v>
       </c>
       <c r="Q26">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="R26">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S26">
         <v>-1</v>
@@ -2686,7 +2686,7 @@
         <v>9</v>
       </c>
       <c r="X26">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Y26">
         <v>7</v>
@@ -2742,10 +2742,10 @@
         <v>6</v>
       </c>
       <c r="Q27">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="R27">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="S27">
         <v>-1</v>
@@ -2760,10 +2760,10 @@
         <v>8</v>
       </c>
       <c r="W27">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="X27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y27">
         <v>8</v>
@@ -2819,10 +2819,10 @@
         <v>9</v>
       </c>
       <c r="Q28">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="R28">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="S28">
         <v>-1</v>
@@ -2837,7 +2837,7 @@
         <v>9</v>
       </c>
       <c r="W28">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="X28">
         <v>8</v>
@@ -2925,10 +2925,10 @@
         <v>8</v>
       </c>
       <c r="Q30">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="R30">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="S30">
         <v>-1</v>
@@ -2943,10 +2943,10 @@
         <v>8</v>
       </c>
       <c r="W30">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="X30">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Y30">
         <v>7</v>
@@ -3002,10 +3002,10 @@
         <v>7</v>
       </c>
       <c r="Q31">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="R31">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="S31">
         <v>-1</v>
@@ -3079,10 +3079,10 @@
         <v>8</v>
       </c>
       <c r="Q32">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="R32">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="S32">
         <v>-1</v>
@@ -3156,10 +3156,10 @@
         <v>7</v>
       </c>
       <c r="Q33">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="R33">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="S33">
         <v>-1</v>
@@ -3177,7 +3177,7 @@
         <v>10</v>
       </c>
       <c r="X33">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Y33">
         <v>9</v>
@@ -3215,10 +3215,10 @@
         <v>7</v>
       </c>
       <c r="K34">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L34">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M34">
         <v>-1</v>
@@ -3233,10 +3233,10 @@
         <v>7</v>
       </c>
       <c r="Q34">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="R34">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="S34">
         <v>-1</v>
@@ -3251,10 +3251,10 @@
         <v>8</v>
       </c>
       <c r="W34">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="X34">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y34">
         <v>8</v>
@@ -3274,7 +3274,7 @@
         <v>6</v>
       </c>
       <c r="E35">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F35">
         <v>4</v>
@@ -3292,10 +3292,10 @@
         <v>6</v>
       </c>
       <c r="K35">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L35">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M35">
         <v>-1</v>
@@ -3310,10 +3310,10 @@
         <v>6</v>
       </c>
       <c r="Q35">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="R35">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="S35">
         <v>-1</v>
@@ -3328,10 +3328,10 @@
         <v>6</v>
       </c>
       <c r="W35">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="X35">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y35">
         <v>6</v>
@@ -3351,10 +3351,10 @@
         <v>6</v>
       </c>
       <c r="E36">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F36">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="G36">
         <v>7</v>
@@ -3369,10 +3369,10 @@
         <v>6</v>
       </c>
       <c r="K36">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L36">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M36">
         <v>7</v>
@@ -3387,10 +3387,10 @@
         <v>6</v>
       </c>
       <c r="Q36">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="R36">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S36">
         <v>9</v>
@@ -3405,10 +3405,10 @@
         <v>6</v>
       </c>
       <c r="W36">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="X36">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y36">
         <v>8</v>
@@ -3428,13 +3428,13 @@
         <v>6</v>
       </c>
       <c r="E37">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F37">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G37">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="H37">
         <v>5</v>
@@ -3446,13 +3446,13 @@
         <v>6</v>
       </c>
       <c r="K37">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L37">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M37">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N37">
         <v>8</v>
@@ -3464,13 +3464,13 @@
         <v>6</v>
       </c>
       <c r="Q37">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="R37">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="S37">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="T37">
         <v>6</v>
@@ -3482,13 +3482,13 @@
         <v>6</v>
       </c>
       <c r="W37">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="X37">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y37">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:25">
@@ -3505,10 +3505,10 @@
         <v>6</v>
       </c>
       <c r="E38">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F38">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G38">
         <v>-1</v>
@@ -3523,10 +3523,10 @@
         <v>6</v>
       </c>
       <c r="K38">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L38">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M38">
         <v>-1</v>
@@ -3541,10 +3541,10 @@
         <v>6</v>
       </c>
       <c r="Q38">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="R38">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S38">
         <v>-1</v>
@@ -3559,10 +3559,10 @@
         <v>6</v>
       </c>
       <c r="W38">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="X38">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y38">
         <v>-1</v>
@@ -3618,10 +3618,10 @@
         <v>9</v>
       </c>
       <c r="Q39">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="R39">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="S39">
         <v>-1</v>
@@ -3701,39 +3701,39 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>57</v>
       </c>
       <c r="C2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D2">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F2">
-        <v>52.94</v>
+        <v>77.78</v>
       </c>
       <c r="G2">
-        <v>17.65</v>
+        <v>22.22</v>
       </c>
       <c r="H2">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="I2">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>44.12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>58</v>
@@ -3742,83 +3742,83 @@
         <v>34</v>
       </c>
       <c r="D3">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E3">
         <v>3</v>
       </c>
       <c r="F3">
-        <v>61.76</v>
+        <v>79.41</v>
       </c>
       <c r="G3">
         <v>8.82</v>
       </c>
       <c r="H3">
-        <v>8.6</v>
+        <v>7.4</v>
       </c>
       <c r="I3">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J3">
-        <v>38.24</v>
+        <v>20.59</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>59</v>
       </c>
       <c r="C4">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D4">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F4">
-        <v>76.47</v>
+        <v>86.11</v>
       </c>
       <c r="G4">
-        <v>8.82</v>
+        <v>13.89</v>
       </c>
       <c r="H4">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="I4">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>23.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>60</v>
       </c>
       <c r="C5">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D5">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E5">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>77.78</v>
+        <v>94.12</v>
       </c>
       <c r="G5">
-        <v>22.22</v>
+        <v>5.88</v>
       </c>
       <c r="H5">
-        <v>8.1</v>
+        <v>7.4</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -3829,28 +3829,28 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>61</v>
       </c>
       <c r="C6">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D6">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>86.11</v>
+        <v>100</v>
       </c>
       <c r="G6">
-        <v>13.89</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -3898,7 +3898,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3930,59 +3930,59 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>19330051920246</v>
+        <v>19330051920247</v>
       </c>
       <c r="B2" t="s">
         <v>67</v>
       </c>
       <c r="C2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D2" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>19330051920247</v>
+        <v>19330051920252</v>
       </c>
       <c r="B3" t="s">
         <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D3" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>19330051920247</v>
+        <v>19330051920261</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D4" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
         <v>58</v>
@@ -3990,59 +3990,59 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>19330051920247</v>
+        <v>19330051920265</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D5" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>19330051920251</v>
+        <v>19330051920407</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" t="s">
         <v>83</v>
       </c>
-      <c r="D6" t="s">
-        <v>94</v>
-      </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>19330051920251</v>
+        <v>19330051920408</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D7" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s">
         <v>58</v>
@@ -4050,602 +4050,22 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>19330051920252</v>
+        <v>19330051920412</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C8" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D8" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9">
-        <v>19330051920252</v>
-      </c>
-      <c r="B9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" t="s">
-        <v>84</v>
-      </c>
-      <c r="D9" t="s">
-        <v>95</v>
-      </c>
-      <c r="E9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10">
-        <v>19330051920252</v>
-      </c>
-      <c r="B10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10" t="s">
-        <v>84</v>
-      </c>
-      <c r="D10" t="s">
-        <v>95</v>
-      </c>
-      <c r="E10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11">
-        <v>19330051920433</v>
-      </c>
-      <c r="B11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D11" t="s">
-        <v>96</v>
-      </c>
-      <c r="E11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12">
-        <v>19330051920257</v>
-      </c>
-      <c r="B12" t="s">
-        <v>72</v>
-      </c>
-      <c r="C12" t="s">
-        <v>86</v>
-      </c>
-      <c r="D12" t="s">
-        <v>97</v>
-      </c>
-      <c r="E12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13">
-        <v>19330051920259</v>
-      </c>
-      <c r="B13" t="s">
-        <v>73</v>
-      </c>
-      <c r="C13" t="s">
-        <v>87</v>
-      </c>
-      <c r="D13" t="s">
-        <v>98</v>
-      </c>
-      <c r="E13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14">
-        <v>19330051920259</v>
-      </c>
-      <c r="B14" t="s">
-        <v>73</v>
-      </c>
-      <c r="C14" t="s">
-        <v>87</v>
-      </c>
-      <c r="D14" t="s">
-        <v>98</v>
-      </c>
-      <c r="E14" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15">
-        <v>19330051920261</v>
-      </c>
-      <c r="B15" t="s">
-        <v>74</v>
-      </c>
-      <c r="C15" t="s">
-        <v>88</v>
-      </c>
-      <c r="D15" t="s">
-        <v>99</v>
-      </c>
-      <c r="E15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16">
-        <v>19330051920261</v>
-      </c>
-      <c r="B16" t="s">
-        <v>74</v>
-      </c>
-      <c r="C16" t="s">
-        <v>88</v>
-      </c>
-      <c r="D16" t="s">
-        <v>99</v>
-      </c>
-      <c r="E16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17">
-        <v>19330051920261</v>
-      </c>
-      <c r="B17" t="s">
-        <v>74</v>
-      </c>
-      <c r="C17" t="s">
-        <v>88</v>
-      </c>
-      <c r="D17" t="s">
-        <v>99</v>
-      </c>
-      <c r="E17" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18">
-        <v>19330051920265</v>
-      </c>
-      <c r="B18" t="s">
-        <v>75</v>
-      </c>
-      <c r="C18" t="s">
-        <v>71</v>
-      </c>
-      <c r="D18" t="s">
-        <v>100</v>
-      </c>
-      <c r="E18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19">
-        <v>19330051920265</v>
-      </c>
-      <c r="B19" t="s">
-        <v>75</v>
-      </c>
-      <c r="C19" t="s">
-        <v>71</v>
-      </c>
-      <c r="D19" t="s">
-        <v>100</v>
-      </c>
-      <c r="E19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20">
-        <v>19330051920265</v>
-      </c>
-      <c r="B20" t="s">
-        <v>75</v>
-      </c>
-      <c r="C20" t="s">
-        <v>71</v>
-      </c>
-      <c r="D20" t="s">
-        <v>100</v>
-      </c>
-      <c r="E20" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21">
-        <v>19330051920264</v>
-      </c>
-      <c r="B21" t="s">
-        <v>76</v>
-      </c>
-      <c r="C21" t="s">
-        <v>72</v>
-      </c>
-      <c r="D21" t="s">
-        <v>101</v>
-      </c>
-      <c r="E21" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22">
-        <v>19330051920264</v>
-      </c>
-      <c r="B22" t="s">
-        <v>76</v>
-      </c>
-      <c r="C22" t="s">
-        <v>72</v>
-      </c>
-      <c r="D22" t="s">
-        <v>101</v>
-      </c>
-      <c r="E22" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23">
-        <v>19330051920266</v>
-      </c>
-      <c r="B23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C23" t="s">
-        <v>89</v>
-      </c>
-      <c r="D23" t="s">
-        <v>102</v>
-      </c>
-      <c r="E23" t="s">
-        <v>9</v>
-      </c>
-      <c r="F23" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24">
-        <v>19330051920407</v>
-      </c>
-      <c r="B24" t="s">
-        <v>78</v>
-      </c>
-      <c r="C24" t="s">
-        <v>80</v>
-      </c>
-      <c r="D24" t="s">
-        <v>103</v>
-      </c>
-      <c r="E24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25">
-        <v>19330051920407</v>
-      </c>
-      <c r="B25" t="s">
-        <v>78</v>
-      </c>
-      <c r="C25" t="s">
-        <v>80</v>
-      </c>
-      <c r="D25" t="s">
-        <v>103</v>
-      </c>
-      <c r="E25" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26">
-        <v>19330051920407</v>
-      </c>
-      <c r="B26" t="s">
-        <v>78</v>
-      </c>
-      <c r="C26" t="s">
-        <v>80</v>
-      </c>
-      <c r="D26" t="s">
-        <v>103</v>
-      </c>
-      <c r="E26" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27">
-        <v>19330051920408</v>
-      </c>
-      <c r="B27" t="s">
-        <v>79</v>
-      </c>
-      <c r="C27" t="s">
-        <v>72</v>
-      </c>
-      <c r="D27" t="s">
-        <v>104</v>
-      </c>
-      <c r="E27" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28">
-        <v>19330051920408</v>
-      </c>
-      <c r="B28" t="s">
-        <v>79</v>
-      </c>
-      <c r="C28" t="s">
-        <v>72</v>
-      </c>
-      <c r="D28" t="s">
-        <v>104</v>
-      </c>
-      <c r="E28" t="s">
-        <v>8</v>
-      </c>
-      <c r="F28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29">
-        <v>19330051920408</v>
-      </c>
-      <c r="B29" t="s">
-        <v>79</v>
-      </c>
-      <c r="C29" t="s">
-        <v>72</v>
-      </c>
-      <c r="D29" t="s">
-        <v>104</v>
-      </c>
-      <c r="E29" t="s">
-        <v>9</v>
-      </c>
-      <c r="F29" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30">
-        <v>19330051920409</v>
-      </c>
-      <c r="B30" t="s">
-        <v>80</v>
-      </c>
-      <c r="C30" t="s">
-        <v>90</v>
-      </c>
-      <c r="D30" t="s">
-        <v>105</v>
-      </c>
-      <c r="E30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F30" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31">
-        <v>19330051920409</v>
-      </c>
-      <c r="B31" t="s">
-        <v>80</v>
-      </c>
-      <c r="C31" t="s">
-        <v>90</v>
-      </c>
-      <c r="D31" t="s">
-        <v>105</v>
-      </c>
-      <c r="E31" t="s">
-        <v>8</v>
-      </c>
-      <c r="F31" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32">
-        <v>19330051920411</v>
-      </c>
-      <c r="B32" t="s">
-        <v>80</v>
-      </c>
-      <c r="C32" t="s">
-        <v>91</v>
-      </c>
-      <c r="D32" t="s">
-        <v>106</v>
-      </c>
-      <c r="E32" t="s">
-        <v>8</v>
-      </c>
-      <c r="F32" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33">
-        <v>19330051920411</v>
-      </c>
-      <c r="B33" t="s">
-        <v>80</v>
-      </c>
-      <c r="C33" t="s">
-        <v>91</v>
-      </c>
-      <c r="D33" t="s">
-        <v>106</v>
-      </c>
-      <c r="E33" t="s">
-        <v>10</v>
-      </c>
-      <c r="F33" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34">
-        <v>19330051920411</v>
-      </c>
-      <c r="B34" t="s">
-        <v>80</v>
-      </c>
-      <c r="C34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D34" t="s">
-        <v>106</v>
-      </c>
-      <c r="E34" t="s">
-        <v>9</v>
-      </c>
-      <c r="F34" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35">
-        <v>19330051920412</v>
-      </c>
-      <c r="B35" t="s">
-        <v>81</v>
-      </c>
-      <c r="C35" t="s">
-        <v>80</v>
-      </c>
-      <c r="D35" t="s">
-        <v>107</v>
-      </c>
-      <c r="E35" t="s">
-        <v>8</v>
-      </c>
-      <c r="F35" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36">
-        <v>19330051920412</v>
-      </c>
-      <c r="B36" t="s">
-        <v>81</v>
-      </c>
-      <c r="C36" t="s">
-        <v>80</v>
-      </c>
-      <c r="D36" t="s">
-        <v>107</v>
-      </c>
-      <c r="E36" t="s">
-        <v>10</v>
-      </c>
-      <c r="F36" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37">
-        <v>19330051920412</v>
-      </c>
-      <c r="B37" t="s">
-        <v>81</v>
-      </c>
-      <c r="C37" t="s">
-        <v>80</v>
-      </c>
-      <c r="D37" t="s">
-        <v>107</v>
-      </c>
-      <c r="E37" t="s">
-        <v>9</v>
-      </c>
-      <c r="F37" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -4687,16 +4107,16 @@
         <v>19330051920247</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D2" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4704,16 +4124,16 @@
         <v>19330051920252</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="D3" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4721,16 +4141,16 @@
         <v>19330051920261</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C4" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="D4" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4738,16 +4158,16 @@
         <v>19330051920265</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D5" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -4755,16 +4175,16 @@
         <v>19330051920407</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D6" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -4772,197 +4192,197 @@
         <v>19330051920408</v>
       </c>
       <c r="B7" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C7" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D7" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>19330051920411</v>
+        <v>19330051920412</v>
       </c>
       <c r="B8" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C8" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="D8" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>19330051920412</v>
+        <v>19330051920246</v>
       </c>
       <c r="B9" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C9" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="D9" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>19330051920251</v>
+        <v>19330051920248</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="C10" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="D10" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>19330051920259</v>
+        <v>17330051920369</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="C11" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="D11" t="s">
-        <v>98</v>
+        <v>129</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>19330051920264</v>
+        <v>19330051920249</v>
       </c>
       <c r="B12" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="C12" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="D12" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>19330051920409</v>
+        <v>19330051920250</v>
       </c>
       <c r="B13" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C13" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="D13" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>19330051920246</v>
+        <v>19330051920251</v>
       </c>
       <c r="B14" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="C14" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="D14" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>19330051920433</v>
+        <v>19330051920253</v>
       </c>
       <c r="B15" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="C15" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="D15" t="s">
-        <v>96</v>
+        <v>133</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>19330051920257</v>
+        <v>19330051920433</v>
       </c>
       <c r="B16" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C16" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="D16" t="s">
-        <v>97</v>
+        <v>134</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>19330051920266</v>
+        <v>19330051920256</v>
       </c>
       <c r="B17" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C17" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="D17" t="s">
-        <v>102</v>
+        <v>135</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>19330051920248</v>
+        <v>19330051920254</v>
       </c>
       <c r="B18" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="C18" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D18" t="s">
         <v>136</v>
@@ -4973,13 +4393,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>17330051920369</v>
+        <v>19330051920258</v>
       </c>
       <c r="B19" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="C19" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="D19" t="s">
         <v>137</v>
@@ -4990,13 +4410,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>19330051920249</v>
+        <v>19330051920257</v>
       </c>
       <c r="B20" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="C20" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="D20" t="s">
         <v>138</v>
@@ -5007,13 +4427,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>19330051920250</v>
+        <v>19330051920259</v>
       </c>
       <c r="B21" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="C21" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="D21" t="s">
         <v>139</v>
@@ -5024,13 +4444,13 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>19330051920253</v>
+        <v>19330051920255</v>
       </c>
       <c r="B22" t="s">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="C22" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D22" t="s">
         <v>140</v>
@@ -5041,13 +4461,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>19330051920256</v>
+        <v>19330051920260</v>
       </c>
       <c r="B23" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="C23" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="D23" t="s">
         <v>141</v>
@@ -5058,13 +4478,13 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>19330051920254</v>
+        <v>19330051920263</v>
       </c>
       <c r="B24" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="C24" t="s">
-        <v>69</v>
+        <v>105</v>
       </c>
       <c r="D24" t="s">
         <v>142</v>
@@ -5075,13 +4495,13 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>19330051920258</v>
+        <v>19330051920264</v>
       </c>
       <c r="B25" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="C25" t="s">
-        <v>126</v>
+        <v>78</v>
       </c>
       <c r="D25" t="s">
         <v>143</v>
@@ -5092,13 +4512,13 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>19330051920255</v>
+        <v>19330051920267</v>
       </c>
       <c r="B26" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="C26" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="D26" t="s">
         <v>144</v>
@@ -5109,13 +4529,13 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>19330051920260</v>
+        <v>19330051920266</v>
       </c>
       <c r="B27" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="C27" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="D27" t="s">
         <v>145</v>
@@ -5126,13 +4546,13 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>19330051920263</v>
+        <v>19330051920402</v>
       </c>
       <c r="B28" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="C28" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D28" t="s">
         <v>146</v>
@@ -5143,13 +4563,13 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>19330051920267</v>
+        <v>19330051920400</v>
       </c>
       <c r="B29" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="C29" t="s">
-        <v>89</v>
+        <v>120</v>
       </c>
       <c r="D29" t="s">
         <v>147</v>
@@ -5160,13 +4580,13 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>19330051920402</v>
+        <v>17330051920176</v>
       </c>
       <c r="B30" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="C30" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="D30" t="s">
         <v>148</v>
@@ -5177,13 +4597,13 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>19330051920400</v>
+        <v>19330051920403</v>
       </c>
       <c r="B31" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="C31" t="s">
-        <v>130</v>
+        <v>67</v>
       </c>
       <c r="D31" t="s">
         <v>149</v>
@@ -5194,13 +4614,13 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>17330051920176</v>
+        <v>19330051920348</v>
       </c>
       <c r="B32" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="C32" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="D32" t="s">
         <v>150</v>
@@ -5211,13 +4631,13 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>19330051920403</v>
+        <v>19330051920405</v>
       </c>
       <c r="B33" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="C33" t="s">
-        <v>68</v>
+        <v>123</v>
       </c>
       <c r="D33" t="s">
         <v>151</v>
@@ -5228,13 +4648,13 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>19330051920348</v>
+        <v>19330051920406</v>
       </c>
       <c r="B34" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="C34" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="D34" t="s">
         <v>152</v>
@@ -5245,13 +4665,13 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>19330051920405</v>
+        <v>19330051920409</v>
       </c>
       <c r="B35" t="s">
-        <v>120</v>
+        <v>77</v>
       </c>
       <c r="C35" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="D35" t="s">
         <v>153</v>
@@ -5262,13 +4682,13 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>19330051920406</v>
+        <v>19330051920411</v>
       </c>
       <c r="B36" t="s">
-        <v>121</v>
+        <v>77</v>
       </c>
       <c r="C36" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="D36" t="s">
         <v>154</v>
@@ -5282,10 +4702,10 @@
         <v>19330051920414</v>
       </c>
       <c r="B37" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="C37" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D37" t="s">
         <v>155</v>
@@ -5336,45 +4756,45 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>19330051920251</v>
+        <v>19330051920247</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C2" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="D2" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G2">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>19330051920251</v>
+        <v>19330051920247</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C3" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="D3" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G3">
         <v>-1</v>
@@ -5382,91 +4802,91 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>19330051920433</v>
+        <v>19330051920259</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="C4" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="D4" t="s">
-        <v>96</v>
+        <v>139</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G4">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>19330051920433</v>
+        <v>19330051920259</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="C5" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="D5" t="s">
-        <v>96</v>
+        <v>139</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G5">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>19330051920264</v>
+        <v>19330051920433</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C6" t="s">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="D6" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G6">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>19330051920264</v>
+        <v>19330051920407</v>
       </c>
       <c r="B7" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C7" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D7" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G7">
         <v>-1</v>
@@ -5474,68 +4894,68 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>19330051920246</v>
+        <v>19330051920409</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="C8" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="D8" t="s">
-        <v>92</v>
+        <v>153</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F8" t="s">
         <v>57</v>
       </c>
       <c r="G8">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>19330051920257</v>
+        <v>19330051920411</v>
       </c>
       <c r="B9" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C9" t="s">
-        <v>86</v>
+        <v>125</v>
       </c>
       <c r="D9" t="s">
-        <v>97</v>
+        <v>154</v>
       </c>
       <c r="E9" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F9" t="s">
         <v>57</v>
       </c>
       <c r="G9">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>19330051920266</v>
+        <v>19330051920412</v>
       </c>
       <c r="B10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" t="s">
         <v>77</v>
       </c>
-      <c r="C10" t="s">
-        <v>89</v>
-      </c>
       <c r="D10" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="E10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G10">
         <v>-1</v>

--- a/grupos/4ASV - Estadisticos 20202.xlsx
+++ b/grupos/4ASV - Estadisticos 20202.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="156">
   <si>
     <t>Materia</t>
   </si>
@@ -194,21 +194,21 @@
     <t>Pesce Bautista Victor Manuel</t>
   </si>
   <si>
+    <t>Sánchez Sánchez Miguel</t>
+  </si>
+  <si>
+    <t>González Sánchez Rene Aurelio</t>
+  </si>
+  <si>
+    <t>Vargas Olvera Francisco Eduardo</t>
+  </si>
+  <si>
+    <t>Muñoz Rivadeneyra Salvador</t>
+  </si>
+  <si>
     <t>González Nuñez Veronica</t>
   </si>
   <si>
-    <t>Sánchez Sánchez Miguel</t>
-  </si>
-  <si>
-    <t>González Sánchez Rene Aurelio</t>
-  </si>
-  <si>
-    <t>Vargas Olvera Francisco Eduardo</t>
-  </si>
-  <si>
-    <t>Muñoz Rivadeneyra Salvador</t>
-  </si>
-  <si>
     <t>NC</t>
   </si>
   <si>
@@ -221,268 +221,268 @@
     <t>Nombres</t>
   </si>
   <si>
+    <t>ALCANTARA</t>
+  </si>
+  <si>
     <t>BONILLA</t>
   </si>
   <si>
+    <t>CASTILLO</t>
+  </si>
+  <si>
+    <t>CANO</t>
+  </si>
+  <si>
+    <t>CISNEROS</t>
+  </si>
+  <si>
+    <t>CORDOVA</t>
+  </si>
+  <si>
+    <t>CRUZ</t>
+  </si>
+  <si>
     <t>FLORES</t>
   </si>
   <si>
+    <t>GOMEZ</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>HERRERA</t>
+  </si>
+  <si>
+    <t>LLAME</t>
+  </si>
+  <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
     <t>MANI</t>
   </si>
   <si>
     <t>MENDOZA</t>
   </si>
   <si>
+    <t>MEJIA</t>
+  </si>
+  <si>
+    <t>MIXCOHUA</t>
+  </si>
+  <si>
+    <t>MORALES</t>
+  </si>
+  <si>
+    <t>MONSALVO</t>
+  </si>
+  <si>
+    <t>OCHOA</t>
+  </si>
+  <si>
+    <t>PEREZ</t>
+  </si>
+  <si>
+    <t>RIVERA</t>
+  </si>
+  <si>
+    <t>ROJAS</t>
+  </si>
+  <si>
+    <t>ROMAN</t>
+  </si>
+  <si>
     <t>ROSAS</t>
   </si>
   <si>
     <t>RUIZ</t>
   </si>
   <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
     <t>SANTILLANA</t>
   </si>
   <si>
-    <t>GONZALEZ</t>
+    <t>TREJO</t>
+  </si>
+  <si>
+    <t>LEYVA</t>
+  </si>
+  <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>ORTEGA</t>
+  </si>
+  <si>
+    <t>PALMA</t>
+  </si>
+  <si>
+    <t>GUIZA</t>
   </si>
   <si>
     <t>GERARDO</t>
   </si>
   <si>
+    <t>SERRANO</t>
+  </si>
+  <si>
+    <t>CUAHUA</t>
+  </si>
+  <si>
+    <t>DOMINGUEZ</t>
+  </si>
+  <si>
+    <t>GALEOTE</t>
+  </si>
+  <si>
+    <t>SIERRA</t>
+  </si>
+  <si>
+    <t>TZOMPAXTLE</t>
+  </si>
+  <si>
+    <t>VERA</t>
+  </si>
+  <si>
     <t>ZAPATA</t>
   </si>
   <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
-    <t>HERNANDEZ</t>
+    <t>IXMATLAHUA</t>
+  </si>
+  <si>
+    <t>CASTELLANOS</t>
+  </si>
+  <si>
+    <t>QUINTERO</t>
+  </si>
+  <si>
+    <t>REYES</t>
+  </si>
+  <si>
+    <t>AGUILAR</t>
+  </si>
+  <si>
+    <t>DIAZ</t>
+  </si>
+  <si>
+    <t>JUAREZ</t>
+  </si>
+  <si>
+    <t>PINO</t>
+  </si>
+  <si>
+    <t>LUENGAS</t>
+  </si>
+  <si>
+    <t>MOISES EFRAIN</t>
   </si>
   <si>
     <t>JOSE EMMANUEL</t>
   </si>
   <si>
+    <t>BRANDON AXEL</t>
+  </si>
+  <si>
+    <t>OMAR</t>
+  </si>
+  <si>
+    <t>GABRIEL MARTIN</t>
+  </si>
+  <si>
+    <t>ANGELA ALESSANDRA</t>
+  </si>
+  <si>
+    <t>VALERIA</t>
+  </si>
+  <si>
     <t>JULIO GABRIEL</t>
   </si>
   <si>
+    <t>LUIS ANGEL</t>
+  </si>
+  <si>
+    <t>CRISTIAN</t>
+  </si>
+  <si>
+    <t>ERICA</t>
+  </si>
+  <si>
+    <t>ZAYRA JOSELIN</t>
+  </si>
+  <si>
+    <t>JAVIER FERNANDO</t>
+  </si>
+  <si>
+    <t>ALEXIS</t>
+  </si>
+  <si>
+    <t>DIEGO ABDEL JARIN</t>
+  </si>
+  <si>
+    <t>WENDY</t>
+  </si>
+  <si>
+    <t>AIDA</t>
+  </si>
+  <si>
+    <t>CESAR</t>
+  </si>
+  <si>
     <t>JUAN CARLOS</t>
   </si>
   <si>
     <t>KARLA</t>
   </si>
   <si>
+    <t>JESUS ALEXIS</t>
+  </si>
+  <si>
+    <t>LETICIA</t>
+  </si>
+  <si>
+    <t>VALENTIN</t>
+  </si>
+  <si>
+    <t>ALFREDO</t>
+  </si>
+  <si>
+    <t>ANGEL GERARDO</t>
+  </si>
+  <si>
+    <t>OSCAR URIEL</t>
+  </si>
+  <si>
+    <t>EDUARDO ULISES</t>
+  </si>
+  <si>
+    <t>JELIN JANET</t>
+  </si>
+  <si>
+    <t>CESAR JOVANI</t>
+  </si>
+  <si>
+    <t>KARLA DENISSE</t>
+  </si>
+  <si>
     <t>MONSERRAT</t>
   </si>
   <si>
     <t>JESUS JOAN</t>
   </si>
   <si>
+    <t>RICARDO ISIDRO</t>
+  </si>
+  <si>
+    <t>CESAR JAHIR</t>
+  </si>
+  <si>
     <t>CESAR GAEL</t>
-  </si>
-  <si>
-    <t>ALCANTARA</t>
-  </si>
-  <si>
-    <t>CASTILLO</t>
-  </si>
-  <si>
-    <t>CANO</t>
-  </si>
-  <si>
-    <t>CISNEROS</t>
-  </si>
-  <si>
-    <t>CORDOVA</t>
-  </si>
-  <si>
-    <t>CRUZ</t>
-  </si>
-  <si>
-    <t>GOMEZ</t>
-  </si>
-  <si>
-    <t>HERRERA</t>
-  </si>
-  <si>
-    <t>LLAME</t>
-  </si>
-  <si>
-    <t>MARTINEZ</t>
-  </si>
-  <si>
-    <t>MEJIA</t>
-  </si>
-  <si>
-    <t>MIXCOHUA</t>
-  </si>
-  <si>
-    <t>MORALES</t>
-  </si>
-  <si>
-    <t>MONSALVO</t>
-  </si>
-  <si>
-    <t>OCHOA</t>
-  </si>
-  <si>
-    <t>PEREZ</t>
-  </si>
-  <si>
-    <t>RIVERA</t>
-  </si>
-  <si>
-    <t>ROJAS</t>
-  </si>
-  <si>
-    <t>ROMAN</t>
-  </si>
-  <si>
-    <t>TREJO</t>
-  </si>
-  <si>
-    <t>LEYVA</t>
-  </si>
-  <si>
-    <t>GARCIA</t>
-  </si>
-  <si>
-    <t>ORTEGA</t>
-  </si>
-  <si>
-    <t>PALMA</t>
-  </si>
-  <si>
-    <t>GUIZA</t>
-  </si>
-  <si>
-    <t>SERRANO</t>
-  </si>
-  <si>
-    <t>CUAHUA</t>
-  </si>
-  <si>
-    <t>DOMINGUEZ</t>
-  </si>
-  <si>
-    <t>GALEOTE</t>
-  </si>
-  <si>
-    <t>SIERRA</t>
-  </si>
-  <si>
-    <t>TZOMPAXTLE</t>
-  </si>
-  <si>
-    <t>VERA</t>
-  </si>
-  <si>
-    <t>IXMATLAHUA</t>
-  </si>
-  <si>
-    <t>CASTELLANOS</t>
-  </si>
-  <si>
-    <t>QUINTERO</t>
-  </si>
-  <si>
-    <t>REYES</t>
-  </si>
-  <si>
-    <t>AGUILAR</t>
-  </si>
-  <si>
-    <t>DIAZ</t>
-  </si>
-  <si>
-    <t>JUAREZ</t>
-  </si>
-  <si>
-    <t>PINO</t>
-  </si>
-  <si>
-    <t>LUENGAS</t>
-  </si>
-  <si>
-    <t>MOISES EFRAIN</t>
-  </si>
-  <si>
-    <t>BRANDON AXEL</t>
-  </si>
-  <si>
-    <t>OMAR</t>
-  </si>
-  <si>
-    <t>GABRIEL MARTIN</t>
-  </si>
-  <si>
-    <t>ANGELA ALESSANDRA</t>
-  </si>
-  <si>
-    <t>VALERIA</t>
-  </si>
-  <si>
-    <t>LUIS ANGEL</t>
-  </si>
-  <si>
-    <t>CRISTIAN</t>
-  </si>
-  <si>
-    <t>ERICA</t>
-  </si>
-  <si>
-    <t>ZAYRA JOSELIN</t>
-  </si>
-  <si>
-    <t>JAVIER FERNANDO</t>
-  </si>
-  <si>
-    <t>ALEXIS</t>
-  </si>
-  <si>
-    <t>DIEGO ABDEL JARIN</t>
-  </si>
-  <si>
-    <t>WENDY</t>
-  </si>
-  <si>
-    <t>AIDA</t>
-  </si>
-  <si>
-    <t>CESAR</t>
-  </si>
-  <si>
-    <t>JESUS ALEXIS</t>
-  </si>
-  <si>
-    <t>LETICIA</t>
-  </si>
-  <si>
-    <t>VALENTIN</t>
-  </si>
-  <si>
-    <t>ALFREDO</t>
-  </si>
-  <si>
-    <t>ANGEL GERARDO</t>
-  </si>
-  <si>
-    <t>OSCAR URIEL</t>
-  </si>
-  <si>
-    <t>EDUARDO ULISES</t>
-  </si>
-  <si>
-    <t>JELIN JANET</t>
-  </si>
-  <si>
-    <t>CESAR JOVANI</t>
-  </si>
-  <si>
-    <t>KARLA DENISSE</t>
-  </si>
-  <si>
-    <t>RICARDO ISIDRO</t>
-  </si>
-  <si>
-    <t>CESAR JAHIR</t>
   </si>
   <si>
     <t>ELIZABETH</t>
@@ -1025,7 +1025,7 @@
         <v>6</v>
       </c>
       <c r="S4">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="T4">
         <v>6</v>
@@ -1043,7 +1043,7 @@
         <v>7</v>
       </c>
       <c r="Y4">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -1066,7 +1066,7 @@
         <v>6</v>
       </c>
       <c r="G5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="H5">
         <v>5</v>
@@ -1084,7 +1084,7 @@
         <v>6</v>
       </c>
       <c r="M5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N5">
         <v>8</v>
@@ -1102,7 +1102,7 @@
         <v>6</v>
       </c>
       <c r="S5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="T5">
         <v>6</v>
@@ -1120,7 +1120,7 @@
         <v>6</v>
       </c>
       <c r="Y5">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -1208,7 +1208,7 @@
         <v>10</v>
       </c>
       <c r="S7">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="T7">
         <v>9</v>
@@ -1439,7 +1439,7 @@
         <v>5</v>
       </c>
       <c r="S10">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="T10">
         <v>8</v>
@@ -1457,7 +1457,7 @@
         <v>6</v>
       </c>
       <c r="Y10">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -1498,7 +1498,7 @@
         <v>6</v>
       </c>
       <c r="M11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N11">
         <v>8</v>
@@ -1516,7 +1516,7 @@
         <v>6</v>
       </c>
       <c r="S11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="T11">
         <v>6</v>
@@ -1593,7 +1593,7 @@
         <v>8</v>
       </c>
       <c r="S12">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="T12">
         <v>10</v>
@@ -1747,7 +1747,7 @@
         <v>10</v>
       </c>
       <c r="S14">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="T14">
         <v>10</v>
@@ -1824,7 +1824,7 @@
         <v>10</v>
       </c>
       <c r="S15">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="T15">
         <v>10</v>
@@ -1901,7 +1901,7 @@
         <v>7</v>
       </c>
       <c r="S16">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="T16">
         <v>9</v>
@@ -1978,7 +1978,7 @@
         <v>10</v>
       </c>
       <c r="S17">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="T17">
         <v>9</v>
@@ -1996,7 +1996,7 @@
         <v>8</v>
       </c>
       <c r="Y17">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:25">
@@ -2055,7 +2055,7 @@
         <v>10</v>
       </c>
       <c r="S18">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="T18">
         <v>10</v>
@@ -2132,7 +2132,7 @@
         <v>6</v>
       </c>
       <c r="S19">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="T19">
         <v>6</v>
@@ -2150,7 +2150,7 @@
         <v>6</v>
       </c>
       <c r="Y19">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:25">
@@ -2209,7 +2209,7 @@
         <v>6</v>
       </c>
       <c r="S20">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="T20">
         <v>9</v>
@@ -2250,7 +2250,7 @@
         <v>6</v>
       </c>
       <c r="G21">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="H21">
         <v>5</v>
@@ -2268,7 +2268,7 @@
         <v>6</v>
       </c>
       <c r="M21">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N21">
         <v>8</v>
@@ -2286,7 +2286,7 @@
         <v>6</v>
       </c>
       <c r="S21">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="T21">
         <v>6</v>
@@ -2304,7 +2304,7 @@
         <v>6</v>
       </c>
       <c r="Y21">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:25">
@@ -2363,7 +2363,7 @@
         <v>9</v>
       </c>
       <c r="S22">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="T22">
         <v>8</v>
@@ -2381,7 +2381,7 @@
         <v>7</v>
       </c>
       <c r="Y22">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:25">
@@ -2440,7 +2440,7 @@
         <v>6</v>
       </c>
       <c r="S23">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="T23">
         <v>8</v>
@@ -2481,7 +2481,7 @@
         <v>6</v>
       </c>
       <c r="G24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="H24">
         <v>5</v>
@@ -2499,7 +2499,7 @@
         <v>6</v>
       </c>
       <c r="M24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N24">
         <v>8</v>
@@ -2517,7 +2517,7 @@
         <v>6</v>
       </c>
       <c r="S24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="T24">
         <v>6</v>
@@ -2535,7 +2535,7 @@
         <v>6</v>
       </c>
       <c r="Y24">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:25">
@@ -2594,7 +2594,7 @@
         <v>10</v>
       </c>
       <c r="S25">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="T25">
         <v>10</v>
@@ -2671,7 +2671,7 @@
         <v>5</v>
       </c>
       <c r="S26">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="T26">
         <v>9</v>
@@ -2748,7 +2748,7 @@
         <v>6</v>
       </c>
       <c r="S27">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="T27">
         <v>9</v>
@@ -2825,7 +2825,7 @@
         <v>8</v>
       </c>
       <c r="S28">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="T28">
         <v>9</v>
@@ -2931,7 +2931,7 @@
         <v>8</v>
       </c>
       <c r="S30">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="T30">
         <v>10</v>
@@ -3008,7 +3008,7 @@
         <v>10</v>
       </c>
       <c r="S31">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="T31">
         <v>9</v>
@@ -3085,7 +3085,7 @@
         <v>10</v>
       </c>
       <c r="S32">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="T32">
         <v>9</v>
@@ -3162,7 +3162,7 @@
         <v>6</v>
       </c>
       <c r="S33">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="T33">
         <v>10</v>
@@ -3180,7 +3180,7 @@
         <v>8</v>
       </c>
       <c r="Y33">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:25">
@@ -3221,7 +3221,7 @@
         <v>7</v>
       </c>
       <c r="M34">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N34">
         <v>9</v>
@@ -3239,7 +3239,7 @@
         <v>10</v>
       </c>
       <c r="S34">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="T34">
         <v>9</v>
@@ -3298,7 +3298,7 @@
         <v>7</v>
       </c>
       <c r="M35">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N35">
         <v>8</v>
@@ -3316,7 +3316,7 @@
         <v>7</v>
       </c>
       <c r="S35">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="T35">
         <v>6</v>
@@ -3511,7 +3511,7 @@
         <v>6</v>
       </c>
       <c r="G38">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="H38">
         <v>7</v>
@@ -3529,7 +3529,7 @@
         <v>7</v>
       </c>
       <c r="M38">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N38">
         <v>7</v>
@@ -3547,7 +3547,7 @@
         <v>5</v>
       </c>
       <c r="S38">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="T38">
         <v>6</v>
@@ -3565,7 +3565,7 @@
         <v>6</v>
       </c>
       <c r="Y38">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:25">
@@ -3624,7 +3624,7 @@
         <v>6</v>
       </c>
       <c r="S39">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="T39">
         <v>9</v>
@@ -3733,60 +3733,60 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>58</v>
       </c>
       <c r="C3">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D3">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F3">
-        <v>79.41</v>
+        <v>86.11</v>
       </c>
       <c r="G3">
-        <v>8.82</v>
+        <v>13.89</v>
       </c>
       <c r="H3">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="I3">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>20.59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>59</v>
       </c>
       <c r="C4">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>86.11</v>
+        <v>94.12</v>
       </c>
       <c r="G4">
-        <v>13.89</v>
+        <v>5.88</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -3797,7 +3797,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>60</v>
@@ -3806,19 +3806,19 @@
         <v>34</v>
       </c>
       <c r="D5">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>94.12</v>
+        <v>100</v>
       </c>
       <c r="G5">
-        <v>5.88</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -3829,7 +3829,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
         <v>61</v>
@@ -3861,7 +3861,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
         <v>62</v>
@@ -3882,7 +3882,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -3898,7 +3898,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3926,146 +3926,6 @@
       </c>
       <c r="F1" s="1" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2">
-        <v>19330051920247</v>
-      </c>
-      <c r="B2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
-        <v>19330051920252</v>
-      </c>
-      <c r="B3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
-        <v>19330051920261</v>
-      </c>
-      <c r="B4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
-        <v>19330051920265</v>
-      </c>
-      <c r="B5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
-        <v>19330051920407</v>
-      </c>
-      <c r="B6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D6" t="s">
-        <v>83</v>
-      </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7">
-        <v>19330051920408</v>
-      </c>
-      <c r="B7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C7" t="s">
-        <v>78</v>
-      </c>
-      <c r="D7" t="s">
-        <v>84</v>
-      </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8">
-        <v>19330051920412</v>
-      </c>
-      <c r="B8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C8" t="s">
-        <v>77</v>
-      </c>
-      <c r="D8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -4104,132 +3964,132 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>19330051920247</v>
+        <v>19330051920246</v>
       </c>
       <c r="B2" t="s">
         <v>67</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="D2" t="s">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>19330051920252</v>
+        <v>19330051920247</v>
       </c>
       <c r="B3" t="s">
         <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D3" t="s">
-        <v>80</v>
+        <v>121</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>19330051920261</v>
+        <v>19330051920248</v>
       </c>
       <c r="B4" t="s">
         <v>69</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="D4" t="s">
-        <v>81</v>
+        <v>122</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>19330051920265</v>
+        <v>17330051920369</v>
       </c>
       <c r="B5" t="s">
         <v>70</v>
       </c>
       <c r="C5" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="D5" t="s">
-        <v>82</v>
+        <v>123</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>19330051920407</v>
+        <v>19330051920249</v>
       </c>
       <c r="B6" t="s">
         <v>71</v>
       </c>
       <c r="C6" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="D6" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>19330051920408</v>
+        <v>19330051920250</v>
       </c>
       <c r="B7" t="s">
         <v>72</v>
       </c>
       <c r="C7" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="D7" t="s">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>19330051920412</v>
+        <v>19330051920251</v>
       </c>
       <c r="B8" t="s">
         <v>73</v>
       </c>
       <c r="C8" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="D8" t="s">
-        <v>85</v>
+        <v>126</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>19330051920246</v>
+        <v>19330051920252</v>
       </c>
       <c r="B9" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C9" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D9" t="s">
         <v>127</v>
@@ -4240,13 +4100,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>19330051920248</v>
+        <v>19330051920253</v>
       </c>
       <c r="B10" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C10" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="D10" t="s">
         <v>128</v>
@@ -4257,13 +4117,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>17330051920369</v>
+        <v>19330051920433</v>
       </c>
       <c r="B11" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C11" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D11" t="s">
         <v>129</v>
@@ -4274,13 +4134,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>19330051920249</v>
+        <v>19330051920256</v>
       </c>
       <c r="B12" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C12" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D12" t="s">
         <v>130</v>
@@ -4291,13 +4151,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>19330051920250</v>
+        <v>19330051920254</v>
       </c>
       <c r="B13" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="C13" t="s">
-        <v>110</v>
+        <v>73</v>
       </c>
       <c r="D13" t="s">
         <v>131</v>
@@ -4308,13 +4168,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>19330051920251</v>
+        <v>19330051920258</v>
       </c>
       <c r="B14" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="C14" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D14" t="s">
         <v>132</v>
@@ -4325,13 +4185,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>19330051920253</v>
+        <v>19330051920257</v>
       </c>
       <c r="B15" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="C15" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D15" t="s">
         <v>133</v>
@@ -4342,13 +4202,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>19330051920433</v>
+        <v>19330051920259</v>
       </c>
       <c r="B16" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C16" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D16" t="s">
         <v>134</v>
@@ -4359,13 +4219,13 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>19330051920256</v>
+        <v>19330051920255</v>
       </c>
       <c r="B17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C17" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D17" t="s">
         <v>135</v>
@@ -4376,13 +4236,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>19330051920254</v>
+        <v>19330051920260</v>
       </c>
       <c r="B18" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C18" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="D18" t="s">
         <v>136</v>
@@ -4393,13 +4253,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>19330051920258</v>
+        <v>19330051920263</v>
       </c>
       <c r="B19" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C19" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="D19" t="s">
         <v>137</v>
@@ -4410,13 +4270,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>19330051920257</v>
+        <v>19330051920261</v>
       </c>
       <c r="B20" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D20" t="s">
         <v>138</v>
@@ -4427,13 +4287,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>19330051920259</v>
+        <v>19330051920265</v>
       </c>
       <c r="B21" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="C21" t="s">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="D21" t="s">
         <v>139</v>
@@ -4444,13 +4304,13 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>19330051920255</v>
+        <v>19330051920264</v>
       </c>
       <c r="B22" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C22" t="s">
-        <v>116</v>
+        <v>77</v>
       </c>
       <c r="D22" t="s">
         <v>140</v>
@@ -4461,13 +4321,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>19330051920260</v>
+        <v>19330051920267</v>
       </c>
       <c r="B23" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C23" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D23" t="s">
         <v>141</v>
@@ -4478,13 +4338,13 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>19330051920263</v>
+        <v>19330051920266</v>
       </c>
       <c r="B24" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="C24" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="D24" t="s">
         <v>142</v>
@@ -4495,13 +4355,13 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>19330051920264</v>
+        <v>19330051920402</v>
       </c>
       <c r="B25" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="C25" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="D25" t="s">
         <v>143</v>
@@ -4512,13 +4372,13 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>19330051920267</v>
+        <v>19330051920400</v>
       </c>
       <c r="B26" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C26" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D26" t="s">
         <v>144</v>
@@ -4529,13 +4389,13 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>19330051920266</v>
+        <v>17330051920176</v>
       </c>
       <c r="B27" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C27" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D27" t="s">
         <v>145</v>
@@ -4546,13 +4406,13 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>19330051920402</v>
+        <v>19330051920403</v>
       </c>
       <c r="B28" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C28" t="s">
-        <v>119</v>
+        <v>68</v>
       </c>
       <c r="D28" t="s">
         <v>146</v>
@@ -4563,13 +4423,13 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>19330051920400</v>
+        <v>19330051920348</v>
       </c>
       <c r="B29" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C29" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D29" t="s">
         <v>147</v>
@@ -4580,13 +4440,13 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>17330051920176</v>
+        <v>19330051920405</v>
       </c>
       <c r="B30" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C30" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D30" t="s">
         <v>148</v>
@@ -4597,13 +4457,13 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>19330051920403</v>
+        <v>19330051920406</v>
       </c>
       <c r="B31" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C31" t="s">
-        <v>67</v>
+        <v>117</v>
       </c>
       <c r="D31" t="s">
         <v>149</v>
@@ -4614,13 +4474,13 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>19330051920348</v>
+        <v>19330051920407</v>
       </c>
       <c r="B32" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C32" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="D32" t="s">
         <v>150</v>
@@ -4631,13 +4491,13 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>19330051920405</v>
+        <v>19330051920408</v>
       </c>
       <c r="B33" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="C33" t="s">
-        <v>123</v>
+        <v>77</v>
       </c>
       <c r="D33" t="s">
         <v>151</v>
@@ -4648,13 +4508,13 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>19330051920406</v>
+        <v>19330051920409</v>
       </c>
       <c r="B34" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="C34" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="D34" t="s">
         <v>152</v>
@@ -4665,13 +4525,13 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>19330051920409</v>
+        <v>19330051920411</v>
       </c>
       <c r="B35" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="C35" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="D35" t="s">
         <v>153</v>
@@ -4682,13 +4542,13 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>19330051920411</v>
+        <v>19330051920412</v>
       </c>
       <c r="B36" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="C36" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="D36" t="s">
         <v>154</v>
@@ -4702,10 +4562,10 @@
         <v>19330051920414</v>
       </c>
       <c r="B37" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C37" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D37" t="s">
         <v>155</v>
@@ -4721,7 +4581,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4756,16 +4616,16 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>19330051920247</v>
+        <v>19330051920252</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="D2" t="s">
-        <v>79</v>
+        <v>127</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
@@ -4779,25 +4639,25 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>19330051920247</v>
+        <v>19330051920252</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="D3" t="s">
-        <v>79</v>
+        <v>127</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F3" t="s">
         <v>58</v>
       </c>
       <c r="G3">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -4805,13 +4665,13 @@
         <v>19330051920259</v>
       </c>
       <c r="B4" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="C4" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="D4" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E4" t="s">
         <v>5</v>
@@ -4828,19 +4688,19 @@
         <v>19330051920259</v>
       </c>
       <c r="B5" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="C5" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="D5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E5" t="s">
         <v>6</v>
       </c>
       <c r="F5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G5">
         <v>5</v>
@@ -4848,62 +4708,62 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>19330051920433</v>
+        <v>19330051920261</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D6" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G6">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>19330051920407</v>
+        <v>19330051920261</v>
       </c>
       <c r="B7" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="C7" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="D7" t="s">
-        <v>83</v>
+        <v>138</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F7" t="s">
         <v>58</v>
       </c>
       <c r="G7">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>19330051920409</v>
+        <v>19330051920265</v>
       </c>
       <c r="B8" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C8" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="D8" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="E8" t="s">
         <v>5</v>
@@ -4917,22 +4777,22 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>19330051920411</v>
+        <v>19330051920265</v>
       </c>
       <c r="B9" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C9" t="s">
-        <v>125</v>
+        <v>76</v>
       </c>
       <c r="D9" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="E9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G9">
         <v>5</v>
@@ -4940,25 +4800,94 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>19330051920412</v>
+        <v>19330051920247</v>
       </c>
       <c r="B10" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D10" t="s">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G10">
-        <v>-1</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>19330051920433</v>
+      </c>
+      <c r="B11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D11" t="s">
+        <v>129</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>19330051920409</v>
+      </c>
+      <c r="B12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" t="s">
+        <v>152</v>
+      </c>
+      <c r="E12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>19330051920411</v>
+      </c>
+      <c r="B13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" t="s">
+        <v>118</v>
+      </c>
+      <c r="D13" t="s">
+        <v>153</v>
+      </c>
+      <c r="E13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/grupos/4ASV - Estadisticos 20202.xlsx
+++ b/grupos/4ASV - Estadisticos 20202.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="156">
   <si>
     <t>Materia</t>
   </si>
@@ -3710,19 +3710,19 @@
         <v>36</v>
       </c>
       <c r="D2">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>77.78</v>
+        <v>100</v>
       </c>
       <c r="G2">
-        <v>22.22</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>8.1</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -3742,19 +3742,19 @@
         <v>36</v>
       </c>
       <c r="D3">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>86.11</v>
+        <v>100</v>
       </c>
       <c r="G3">
-        <v>13.89</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -3774,16 +3774,16 @@
         <v>34</v>
       </c>
       <c r="D4">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>94.12</v>
+        <v>100</v>
       </c>
       <c r="G4">
-        <v>5.88</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>7.4</v>
@@ -4581,7 +4581,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4611,283 +4611,7 @@
         <v>48</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2">
-        <v>19330051920252</v>
-      </c>
-      <c r="B2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>19330051920252</v>
-      </c>
-      <c r="B3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D3" t="s">
-        <v>127</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>19330051920259</v>
-      </c>
-      <c r="B4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>19330051920259</v>
-      </c>
-      <c r="B5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C5" t="s">
-        <v>107</v>
-      </c>
-      <c r="D5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" t="s">
-        <v>58</v>
-      </c>
-      <c r="G5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>19330051920261</v>
-      </c>
-      <c r="B6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C6" t="s">
-        <v>110</v>
-      </c>
-      <c r="D6" t="s">
-        <v>138</v>
-      </c>
-      <c r="E6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>19330051920261</v>
-      </c>
-      <c r="B7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C7" t="s">
-        <v>110</v>
-      </c>
-      <c r="D7" t="s">
-        <v>138</v>
-      </c>
-      <c r="E7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>19330051920265</v>
-      </c>
-      <c r="B8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C8" t="s">
-        <v>76</v>
-      </c>
-      <c r="D8" t="s">
-        <v>139</v>
-      </c>
-      <c r="E8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>19330051920265</v>
-      </c>
-      <c r="B9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C9" t="s">
-        <v>76</v>
-      </c>
-      <c r="D9" t="s">
-        <v>139</v>
-      </c>
-      <c r="E9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" t="s">
-        <v>58</v>
-      </c>
-      <c r="G9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>19330051920247</v>
-      </c>
-      <c r="B10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D10" t="s">
-        <v>121</v>
-      </c>
-      <c r="E10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" t="s">
-        <v>57</v>
-      </c>
-      <c r="G10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>19330051920433</v>
-      </c>
-      <c r="B11" t="s">
-        <v>76</v>
-      </c>
-      <c r="C11" t="s">
-        <v>103</v>
-      </c>
-      <c r="D11" t="s">
-        <v>129</v>
-      </c>
-      <c r="E11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" t="s">
-        <v>59</v>
-      </c>
-      <c r="G11">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>19330051920409</v>
-      </c>
-      <c r="B12" t="s">
-        <v>94</v>
-      </c>
-      <c r="C12" t="s">
-        <v>98</v>
-      </c>
-      <c r="D12" t="s">
-        <v>152</v>
-      </c>
-      <c r="E12" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" t="s">
-        <v>57</v>
-      </c>
-      <c r="G12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
-        <v>19330051920411</v>
-      </c>
-      <c r="B13" t="s">
-        <v>94</v>
-      </c>
-      <c r="C13" t="s">
-        <v>118</v>
-      </c>
-      <c r="D13" t="s">
-        <v>153</v>
-      </c>
-      <c r="E13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" t="s">
-        <v>57</v>
-      </c>
-      <c r="G13">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
